--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3502,28 +3502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11290.43880614398</v>
+        <v>11887.36777654132</v>
       </c>
       <c r="AB2" t="n">
-        <v>15448.07647357313</v>
+        <v>16264.8210255184</v>
       </c>
       <c r="AC2" t="n">
-        <v>13973.73373644623</v>
+        <v>14712.52933466199</v>
       </c>
       <c r="AD2" t="n">
-        <v>11290438.80614398</v>
+        <v>11887367.77654132</v>
       </c>
       <c r="AE2" t="n">
-        <v>15448076.47357313</v>
+        <v>16264821.0255184</v>
       </c>
       <c r="AF2" t="n">
         <v>1.341373675178338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.9958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>13973733.73644623</v>
+        <v>14712529.33466199</v>
       </c>
     </row>
     <row r="3">
@@ -3608,19 +3608,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3871.475729973235</v>
+        <v>4184.64007978682</v>
       </c>
       <c r="AB3" t="n">
-        <v>5297.123891204608</v>
+        <v>5725.609170455624</v>
       </c>
       <c r="AC3" t="n">
-        <v>4791.573821587916</v>
+        <v>5179.165067170063</v>
       </c>
       <c r="AD3" t="n">
-        <v>3871475.729973235</v>
+        <v>4184640.07978682</v>
       </c>
       <c r="AE3" t="n">
-        <v>5297123.891204609</v>
+        <v>5725609.170455623</v>
       </c>
       <c r="AF3" t="n">
         <v>2.531320162088861e-06</v>
@@ -3629,7 +3629,7 @@
         <v>62</v>
       </c>
       <c r="AH3" t="n">
-        <v>4791573.821587916</v>
+        <v>5179165.067170063</v>
       </c>
     </row>
     <row r="4">
@@ -3714,28 +3714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2990.842164315825</v>
+        <v>3264.818263629237</v>
       </c>
       <c r="AB4" t="n">
-        <v>4092.202195861108</v>
+        <v>4467.068381914185</v>
       </c>
       <c r="AC4" t="n">
-        <v>3701.648161729824</v>
+        <v>4040.737645113978</v>
       </c>
       <c r="AD4" t="n">
-        <v>2990842.164315825</v>
+        <v>3264818.263629237</v>
       </c>
       <c r="AE4" t="n">
-        <v>4092202.195861108</v>
+        <v>4467068.381914185</v>
       </c>
       <c r="AF4" t="n">
         <v>2.965637445852024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.925</v>
       </c>
       <c r="AH4" t="n">
-        <v>3701648.161729824</v>
+        <v>4040737.645113978</v>
       </c>
     </row>
     <row r="5">
@@ -3820,28 +3820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2639.734646838201</v>
+        <v>2884.346193370425</v>
       </c>
       <c r="AB5" t="n">
-        <v>3611.801400677739</v>
+        <v>3946.489710142953</v>
       </c>
       <c r="AC5" t="n">
-        <v>3267.096144192021</v>
+        <v>3569.842271139857</v>
       </c>
       <c r="AD5" t="n">
-        <v>2639734.646838201</v>
+        <v>2884346.193370425</v>
       </c>
       <c r="AE5" t="n">
-        <v>3611801.400677739</v>
+        <v>3946489.710142953</v>
       </c>
       <c r="AF5" t="n">
         <v>3.197298442828906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.09166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3267096.144192021</v>
+        <v>3569842.271139856</v>
       </c>
     </row>
     <row r="6">
@@ -3926,28 +3926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2426.077913049315</v>
+        <v>2670.688448551682</v>
       </c>
       <c r="AB6" t="n">
-        <v>3319.466831637917</v>
+        <v>3654.153757767479</v>
       </c>
       <c r="AC6" t="n">
-        <v>3002.661576127228</v>
+        <v>3305.406451763022</v>
       </c>
       <c r="AD6" t="n">
-        <v>2426077.913049315</v>
+        <v>2670688.448551682</v>
       </c>
       <c r="AE6" t="n">
-        <v>3319466.831637917</v>
+        <v>3654153.757767479</v>
       </c>
       <c r="AF6" t="n">
         <v>3.341568624686054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.96666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3002661.576127228</v>
+        <v>3305406.451763022</v>
       </c>
     </row>
     <row r="7">
@@ -4032,28 +4032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2288.449970552989</v>
+        <v>2523.306150203788</v>
       </c>
       <c r="AB7" t="n">
-        <v>3131.158208998131</v>
+        <v>3452.498795119766</v>
       </c>
       <c r="AC7" t="n">
-        <v>2832.324864139377</v>
+        <v>3122.997155725898</v>
       </c>
       <c r="AD7" t="n">
-        <v>2288449.970552989</v>
+        <v>2523306.150203788</v>
       </c>
       <c r="AE7" t="n">
-        <v>3131158.208998131</v>
+        <v>3452498.795119766</v>
       </c>
       <c r="AF7" t="n">
         <v>3.441013345339545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.6125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2832324.864139377</v>
+        <v>3122997.155725898</v>
       </c>
     </row>
     <row r="8">
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2175.90893742232</v>
+        <v>2401.010761221554</v>
       </c>
       <c r="AB8" t="n">
-        <v>2977.174602508597</v>
+        <v>3285.168848622483</v>
       </c>
       <c r="AC8" t="n">
-        <v>2693.037236935974</v>
+        <v>2971.636944473267</v>
       </c>
       <c r="AD8" t="n">
-        <v>2175908.93742232</v>
+        <v>2401010.761221554</v>
       </c>
       <c r="AE8" t="n">
-        <v>2977174.602508597</v>
+        <v>3285168.848622483</v>
       </c>
       <c r="AF8" t="n">
         <v>3.515596885829664e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.64166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2693037.236935974</v>
+        <v>2971636.944473267</v>
       </c>
     </row>
     <row r="9">
@@ -4244,28 +4244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2079.774573024974</v>
+        <v>2304.842231405428</v>
       </c>
       <c r="AB9" t="n">
-        <v>2845.639323991317</v>
+        <v>3153.586823471947</v>
       </c>
       <c r="AC9" t="n">
-        <v>2574.055500789461</v>
+        <v>2852.612923126571</v>
       </c>
       <c r="AD9" t="n">
-        <v>2079774.573024974</v>
+        <v>2304842.231405428</v>
       </c>
       <c r="AE9" t="n">
-        <v>2845639.323991317</v>
+        <v>3153586.823471948</v>
       </c>
       <c r="AF9" t="n">
         <v>3.573606306210866e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.92083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2574055.500789461</v>
+        <v>2852612.923126571</v>
       </c>
     </row>
     <row r="10">
@@ -4350,28 +4350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2005.210365439138</v>
+        <v>2220.45634816032</v>
       </c>
       <c r="AB10" t="n">
-        <v>2743.617285631702</v>
+        <v>3038.126335173561</v>
       </c>
       <c r="AC10" t="n">
-        <v>2481.770302582057</v>
+        <v>2748.171821781573</v>
       </c>
       <c r="AD10" t="n">
-        <v>2005210.365439138</v>
+        <v>2220456.34816032</v>
       </c>
       <c r="AE10" t="n">
-        <v>2743617.285631702</v>
+        <v>3038126.335173561</v>
       </c>
       <c r="AF10" t="n">
         <v>3.618055082866594e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.37916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2481770.302582057</v>
+        <v>2748171.821781573</v>
       </c>
     </row>
     <row r="11">
@@ -4456,28 +4456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1992.132705789626</v>
+        <v>2207.378688510807</v>
       </c>
       <c r="AB11" t="n">
-        <v>2725.723854753614</v>
+        <v>3020.232904295473</v>
       </c>
       <c r="AC11" t="n">
-        <v>2465.584595633386</v>
+        <v>2731.986114832902</v>
       </c>
       <c r="AD11" t="n">
-        <v>1992132.705789626</v>
+        <v>2207378.688510807</v>
       </c>
       <c r="AE11" t="n">
-        <v>2725723.854753614</v>
+        <v>3020232.904295472</v>
       </c>
       <c r="AF11" t="n">
         <v>3.624835404729331e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>2465584.595633386</v>
+        <v>2731986.114832902</v>
       </c>
     </row>
     <row r="12">
@@ -4562,28 +4562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1999.352630578988</v>
+        <v>2214.598613300169</v>
       </c>
       <c r="AB12" t="n">
-        <v>2735.602474371021</v>
+        <v>3030.111523912879</v>
       </c>
       <c r="AC12" t="n">
-        <v>2474.520413659237</v>
+        <v>2740.921932858753</v>
       </c>
       <c r="AD12" t="n">
-        <v>1999352.630578988</v>
+        <v>2214598.613300169</v>
       </c>
       <c r="AE12" t="n">
-        <v>2735602.474371021</v>
+        <v>3030111.523912879</v>
       </c>
       <c r="AF12" t="n">
         <v>3.624458720181402e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.30416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2474520.413659236</v>
+        <v>2740921.932858753</v>
       </c>
     </row>
   </sheetData>
@@ -4859,28 +4859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6896.915526950401</v>
+        <v>7361.445224480467</v>
       </c>
       <c r="AB2" t="n">
-        <v>9436.664094412798</v>
+        <v>10072.25412017736</v>
       </c>
       <c r="AC2" t="n">
-        <v>8536.042117682922</v>
+        <v>9110.972323444694</v>
       </c>
       <c r="AD2" t="n">
-        <v>6896915.526950401</v>
+        <v>7361445.224480467</v>
       </c>
       <c r="AE2" t="n">
-        <v>9436664.094412798</v>
+        <v>10072254.12017736</v>
       </c>
       <c r="AF2" t="n">
         <v>1.871216581571072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.78333333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>8536042.117682923</v>
+        <v>9110972.323444694</v>
       </c>
     </row>
     <row r="3">
@@ -4965,28 +4965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3076.568753692309</v>
+        <v>3366.882731939211</v>
       </c>
       <c r="AB3" t="n">
-        <v>4209.497097436225</v>
+        <v>4606.717490222453</v>
       </c>
       <c r="AC3" t="n">
-        <v>3807.748602523036</v>
+        <v>4167.058838524053</v>
       </c>
       <c r="AD3" t="n">
-        <v>3076568.753692309</v>
+        <v>3366882.731939211</v>
       </c>
       <c r="AE3" t="n">
-        <v>4209497.097436225</v>
+        <v>4606717.490222453</v>
       </c>
       <c r="AF3" t="n">
         <v>3.025270860954112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.77083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3807748.602523035</v>
+        <v>4167058.838524053</v>
       </c>
     </row>
     <row r="4">
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2467.015131904169</v>
+        <v>2718.64107896942</v>
       </c>
       <c r="AB4" t="n">
-        <v>3375.478940497766</v>
+        <v>3719.764662225778</v>
       </c>
       <c r="AC4" t="n">
-        <v>3053.327967930979</v>
+        <v>3364.755543585302</v>
       </c>
       <c r="AD4" t="n">
-        <v>2467015.131904169</v>
+        <v>2718641.078969419</v>
       </c>
       <c r="AE4" t="n">
-        <v>3375478.940497765</v>
+        <v>3719764.662225778</v>
       </c>
       <c r="AF4" t="n">
         <v>3.442791212745191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.87916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3053327.967930979</v>
+        <v>3364755.543585302</v>
       </c>
     </row>
     <row r="5">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2194.047757438667</v>
+        <v>2435.958989935028</v>
       </c>
       <c r="AB5" t="n">
-        <v>3001.992936283397</v>
+        <v>3332.986556955297</v>
       </c>
       <c r="AC5" t="n">
-        <v>2715.486943767944</v>
+        <v>3014.89099783537</v>
       </c>
       <c r="AD5" t="n">
-        <v>2194047.757438667</v>
+        <v>2435958.989935028</v>
       </c>
       <c r="AE5" t="n">
-        <v>3001992.936283397</v>
+        <v>3332986.556955297</v>
       </c>
       <c r="AF5" t="n">
         <v>3.664534499283789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2715486.943767944</v>
+        <v>3014890.99783537</v>
       </c>
     </row>
     <row r="6">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2033.722572787961</v>
+        <v>2256.273718013965</v>
       </c>
       <c r="AB6" t="n">
-        <v>2782.628945596172</v>
+        <v>3087.133240758157</v>
       </c>
       <c r="AC6" t="n">
-        <v>2517.058744472727</v>
+        <v>2792.501577078798</v>
       </c>
       <c r="AD6" t="n">
-        <v>2033722.572787961</v>
+        <v>2256273.718013965</v>
       </c>
       <c r="AE6" t="n">
-        <v>2782628.945596172</v>
+        <v>3087133.240758157</v>
       </c>
       <c r="AF6" t="n">
         <v>3.800548039353933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2517058.744472727</v>
+        <v>2792501.577078798</v>
       </c>
     </row>
     <row r="7">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1902.286277594318</v>
+        <v>2115.191039088993</v>
       </c>
       <c r="AB7" t="n">
-        <v>2602.792007952129</v>
+        <v>2894.097695324316</v>
       </c>
       <c r="AC7" t="n">
-        <v>2354.385191754704</v>
+        <v>2617.889073174189</v>
       </c>
       <c r="AD7" t="n">
-        <v>1902286.277594318</v>
+        <v>2115191.039088992</v>
       </c>
       <c r="AE7" t="n">
-        <v>2602792.007952129</v>
+        <v>2894097.695324316</v>
       </c>
       <c r="AF7" t="n">
         <v>3.896994004130944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.07083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2354385.191754704</v>
+        <v>2617889.073174189</v>
       </c>
     </row>
     <row r="8">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1847.435071237587</v>
+        <v>2070.019370852512</v>
       </c>
       <c r="AB8" t="n">
-        <v>2527.742167550411</v>
+        <v>2832.291826009808</v>
       </c>
       <c r="AC8" t="n">
-        <v>2286.498002787813</v>
+        <v>2561.981869281976</v>
       </c>
       <c r="AD8" t="n">
-        <v>1847435.071237587</v>
+        <v>2070019.370852512</v>
       </c>
       <c r="AE8" t="n">
-        <v>2527742.167550411</v>
+        <v>2832291.826009808</v>
       </c>
       <c r="AF8" t="n">
         <v>3.929142659056615e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.70416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2286498.002787813</v>
+        <v>2561981.869281976</v>
       </c>
     </row>
     <row r="9">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1850.954675757721</v>
+        <v>2073.538975372646</v>
       </c>
       <c r="AB9" t="n">
-        <v>2532.557845728851</v>
+        <v>2837.107504188248</v>
       </c>
       <c r="AC9" t="n">
-        <v>2290.854079399749</v>
+        <v>2566.337945893912</v>
       </c>
       <c r="AD9" t="n">
-        <v>1850954.675757721</v>
+        <v>2073538.975372646</v>
       </c>
       <c r="AE9" t="n">
-        <v>2532557.84572885</v>
+        <v>2837107.504188248</v>
       </c>
       <c r="AF9" t="n">
         <v>3.932027794755072e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.67499999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>2290854.079399749</v>
+        <v>2566337.945893912</v>
       </c>
     </row>
   </sheetData>
@@ -5898,28 +5898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2364.922194243733</v>
+        <v>2636.163844888097</v>
       </c>
       <c r="AB2" t="n">
-        <v>3235.790879168215</v>
+        <v>3606.915671916942</v>
       </c>
       <c r="AC2" t="n">
-        <v>2926.9715391213</v>
+        <v>3262.676702526992</v>
       </c>
       <c r="AD2" t="n">
-        <v>2364922.194243732</v>
+        <v>2636163.844888097</v>
       </c>
       <c r="AE2" t="n">
-        <v>3235790.879168215</v>
+        <v>3606915.671916942</v>
       </c>
       <c r="AF2" t="n">
         <v>4.127699535936984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>2926971.5391213</v>
+        <v>3262676.702526992</v>
       </c>
     </row>
     <row r="3">
@@ -6004,28 +6004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1553.881069404679</v>
+        <v>1778.378465739335</v>
       </c>
       <c r="AB3" t="n">
-        <v>2126.088631554079</v>
+        <v>2433.255873345283</v>
       </c>
       <c r="AC3" t="n">
-        <v>1923.177716542692</v>
+        <v>2201.029347889276</v>
       </c>
       <c r="AD3" t="n">
-        <v>1553881.069404679</v>
+        <v>1778378.465739335</v>
       </c>
       <c r="AE3" t="n">
-        <v>2126088.631554079</v>
+        <v>2433255.873345283</v>
       </c>
       <c r="AF3" t="n">
         <v>5.144810724722571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.59166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1923177.716542692</v>
+        <v>2201029.347889276</v>
       </c>
     </row>
     <row r="4">
@@ -6110,28 +6110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1539.998271622538</v>
+        <v>1764.394182730708</v>
       </c>
       <c r="AB4" t="n">
-        <v>2107.093575162741</v>
+        <v>2414.121960389856</v>
       </c>
       <c r="AC4" t="n">
-        <v>1905.995521673615</v>
+        <v>2183.721548731698</v>
       </c>
       <c r="AD4" t="n">
-        <v>1539998.271622538</v>
+        <v>1764394.182730708</v>
       </c>
       <c r="AE4" t="n">
-        <v>2107093.575162741</v>
+        <v>2414121.960389856</v>
       </c>
       <c r="AF4" t="n">
         <v>5.180478651026138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.27083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1905995.521673615</v>
+        <v>2183721.548731699</v>
       </c>
     </row>
   </sheetData>
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3466.619095902351</v>
+        <v>3798.339234335065</v>
       </c>
       <c r="AB2" t="n">
-        <v>4743.181183454666</v>
+        <v>5197.055311317991</v>
       </c>
       <c r="AC2" t="n">
-        <v>4290.498628402175</v>
+        <v>4701.055646518547</v>
       </c>
       <c r="AD2" t="n">
-        <v>3466619.095902351</v>
+        <v>3798339.234335065</v>
       </c>
       <c r="AE2" t="n">
-        <v>4743181.183454666</v>
+        <v>5197055.311317991</v>
       </c>
       <c r="AF2" t="n">
         <v>3.081864863059102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4290498.628402175</v>
+        <v>4701055.646518547</v>
       </c>
     </row>
     <row r="3">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2047.115198773819</v>
+        <v>2293.593691276712</v>
       </c>
       <c r="AB3" t="n">
-        <v>2800.953327310984</v>
+        <v>3138.196074617271</v>
       </c>
       <c r="AC3" t="n">
-        <v>2533.634272915108</v>
+        <v>2838.691045741533</v>
       </c>
       <c r="AD3" t="n">
-        <v>2047115.198773819</v>
+        <v>2293593.691276711</v>
       </c>
       <c r="AE3" t="n">
-        <v>2800953.327310984</v>
+        <v>3138196.074617271</v>
       </c>
       <c r="AF3" t="n">
         <v>4.167442544372679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2533634.272915108</v>
+        <v>2838691.045741533</v>
       </c>
     </row>
     <row r="4">
@@ -6619,28 +6619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1702.671515176362</v>
+        <v>1930.184867422293</v>
       </c>
       <c r="AB4" t="n">
-        <v>2329.670283630086</v>
+        <v>2640.964089353682</v>
       </c>
       <c r="AC4" t="n">
-        <v>2107.329821473209</v>
+        <v>2388.914183282145</v>
       </c>
       <c r="AD4" t="n">
-        <v>1702671.515176362</v>
+        <v>1930184.867422293</v>
       </c>
       <c r="AE4" t="n">
-        <v>2329670.283630086</v>
+        <v>2640964.089353682</v>
       </c>
       <c r="AF4" t="n">
         <v>4.554045702105278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.57916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2107329.821473209</v>
+        <v>2388914.183282145</v>
       </c>
     </row>
     <row r="5">
@@ -6725,28 +6725,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1632.645057377502</v>
+        <v>1850.710004913735</v>
       </c>
       <c r="AB5" t="n">
-        <v>2233.856994720404</v>
+        <v>2532.223076285994</v>
       </c>
       <c r="AC5" t="n">
-        <v>2020.660818382271</v>
+        <v>2290.551259882666</v>
       </c>
       <c r="AD5" t="n">
-        <v>1632645.057377502</v>
+        <v>1850710.004913735</v>
       </c>
       <c r="AE5" t="n">
-        <v>2233856.994720404</v>
+        <v>2532223.076285994</v>
       </c>
       <c r="AF5" t="n">
         <v>4.629273893880565e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.84166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2020660.818382271</v>
+        <v>2290551.259882666</v>
       </c>
     </row>
     <row r="6">
@@ -6831,28 +6831,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1640.23404914353</v>
+        <v>1858.298996679763</v>
       </c>
       <c r="AB6" t="n">
-        <v>2244.24058805737</v>
+        <v>2542.60666962296</v>
       </c>
       <c r="AC6" t="n">
-        <v>2030.053416144622</v>
+        <v>2299.943857645018</v>
       </c>
       <c r="AD6" t="n">
-        <v>1640234.049143529</v>
+        <v>1858298.996679763</v>
       </c>
       <c r="AE6" t="n">
-        <v>2244240.58805737</v>
+        <v>2542606.66962296</v>
       </c>
       <c r="AF6" t="n">
         <v>4.628775693935034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.84583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2030053.416144622</v>
+        <v>2299943.857645018</v>
       </c>
     </row>
   </sheetData>
@@ -7128,28 +7128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1718.537461792256</v>
+        <v>1968.185377308774</v>
       </c>
       <c r="AB2" t="n">
-        <v>2351.378771746117</v>
+        <v>2692.958063444542</v>
       </c>
       <c r="AC2" t="n">
-        <v>2126.966481951501</v>
+        <v>2435.945925459774</v>
       </c>
       <c r="AD2" t="n">
-        <v>1718537.461792256</v>
+        <v>1968185.377308774</v>
       </c>
       <c r="AE2" t="n">
-        <v>2351378.771746117</v>
+        <v>2692958.063444542</v>
       </c>
       <c r="AF2" t="n">
         <v>5.26077920037088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2126966.481951501</v>
+        <v>2435945.925459774</v>
       </c>
     </row>
     <row r="3">
@@ -7234,28 +7234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1476.442473568547</v>
+        <v>1707.587902702711</v>
       </c>
       <c r="AB3" t="n">
-        <v>2020.13372838135</v>
+        <v>2336.397101939348</v>
       </c>
       <c r="AC3" t="n">
-        <v>1827.335000620128</v>
+        <v>2113.414641684184</v>
       </c>
       <c r="AD3" t="n">
-        <v>1476442.473568548</v>
+        <v>1707587.902702711</v>
       </c>
       <c r="AE3" t="n">
-        <v>2020133.72838135</v>
+        <v>2336397.101939348</v>
       </c>
       <c r="AF3" t="n">
         <v>5.69500433727524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1827335.000620128</v>
+        <v>2113414.641684183</v>
       </c>
     </row>
   </sheetData>
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7765.448946426322</v>
+        <v>8250.725565303612</v>
       </c>
       <c r="AB2" t="n">
-        <v>10625.02983593001</v>
+        <v>11289.00671477142</v>
       </c>
       <c r="AC2" t="n">
-        <v>9610.99190071148</v>
+        <v>10211.59975813365</v>
       </c>
       <c r="AD2" t="n">
-        <v>7765448.946426322</v>
+        <v>8250725.565303613</v>
       </c>
       <c r="AE2" t="n">
-        <v>10625029.83593001</v>
+        <v>11289006.71477142</v>
       </c>
       <c r="AF2" t="n">
         <v>1.725059181661631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>97.15833333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>9610991.900711481</v>
+        <v>10211599.75813364</v>
       </c>
     </row>
     <row r="3">
@@ -7637,28 +7637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3271.558622575822</v>
+        <v>3553.050235034093</v>
       </c>
       <c r="AB3" t="n">
-        <v>4476.290838388553</v>
+        <v>4861.440081087469</v>
       </c>
       <c r="AC3" t="n">
-        <v>4049.07992328623</v>
+        <v>4397.471062822303</v>
       </c>
       <c r="AD3" t="n">
-        <v>3271558.622575821</v>
+        <v>3553050.235034093</v>
       </c>
       <c r="AE3" t="n">
-        <v>4476290.838388553</v>
+        <v>4861440.081087468</v>
       </c>
       <c r="AF3" t="n">
         <v>2.888639552971284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.01666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4049079.92328623</v>
+        <v>4397471.062822303</v>
       </c>
     </row>
     <row r="4">
@@ -7743,28 +7743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2596.27958389439</v>
+        <v>2848.677564645105</v>
       </c>
       <c r="AB4" t="n">
-        <v>3552.344266455937</v>
+        <v>3897.686318732126</v>
       </c>
       <c r="AC4" t="n">
-        <v>3213.31351541174</v>
+        <v>3525.696606909291</v>
       </c>
       <c r="AD4" t="n">
-        <v>2596279.58389439</v>
+        <v>2848677.564645105</v>
       </c>
       <c r="AE4" t="n">
-        <v>3552344.266455937</v>
+        <v>3897686.318732127</v>
       </c>
       <c r="AF4" t="n">
         <v>3.311357482541435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.60833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3213313.51541174</v>
+        <v>3525696.606909291</v>
       </c>
     </row>
     <row r="5">
@@ -7849,28 +7849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2309.059920790052</v>
+        <v>2541.97272433541</v>
       </c>
       <c r="AB5" t="n">
-        <v>3159.357652159315</v>
+        <v>3478.039225357782</v>
       </c>
       <c r="AC5" t="n">
-        <v>2857.832992023424</v>
+        <v>3146.100043148216</v>
       </c>
       <c r="AD5" t="n">
-        <v>2309059.920790052</v>
+        <v>2541972.72433541</v>
       </c>
       <c r="AE5" t="n">
-        <v>3159357.652159315</v>
+        <v>3478039.225357782</v>
       </c>
       <c r="AF5" t="n">
         <v>3.53337489179236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.42916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2857832.992023424</v>
+        <v>3146100.043148216</v>
       </c>
     </row>
     <row r="6">
@@ -7955,28 +7955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2133.764161950255</v>
+        <v>2366.710119884538</v>
       </c>
       <c r="AB6" t="n">
-        <v>2919.510261411447</v>
+        <v>3238.23719790768</v>
       </c>
       <c r="AC6" t="n">
-        <v>2640.876299620725</v>
+        <v>2929.1843846337</v>
       </c>
       <c r="AD6" t="n">
-        <v>2133764.161950255</v>
+        <v>2366710.119884538</v>
       </c>
       <c r="AE6" t="n">
-        <v>2919510.261411447</v>
+        <v>3238237.19790768</v>
       </c>
       <c r="AF6" t="n">
         <v>3.668515923510315e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.68333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2640876.299620725</v>
+        <v>2929184.3846337</v>
       </c>
     </row>
     <row r="7">
@@ -8061,28 +8061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1997.684892627086</v>
+        <v>2220.854602054839</v>
       </c>
       <c r="AB7" t="n">
-        <v>2733.320601729823</v>
+        <v>3038.671243721762</v>
       </c>
       <c r="AC7" t="n">
-        <v>2472.456319740287</v>
+        <v>2748.66472502272</v>
       </c>
       <c r="AD7" t="n">
-        <v>1997684.892627086</v>
+        <v>2220854.602054839</v>
       </c>
       <c r="AE7" t="n">
-        <v>2733320.601729823</v>
+        <v>3038671.243721763</v>
       </c>
       <c r="AF7" t="n">
         <v>3.771882724556489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.42916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2472456.319740287</v>
+        <v>2748664.72502272</v>
       </c>
     </row>
     <row r="8">
@@ -8167,28 +8167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1895.295031327138</v>
+        <v>2118.532060562592</v>
       </c>
       <c r="AB8" t="n">
-        <v>2593.226276377355</v>
+        <v>2898.669028299959</v>
       </c>
       <c r="AC8" t="n">
-        <v>2345.732400175838</v>
+        <v>2622.024124546544</v>
       </c>
       <c r="AD8" t="n">
-        <v>1895295.031327138</v>
+        <v>2118532.060562592</v>
       </c>
       <c r="AE8" t="n">
-        <v>2593226.276377355</v>
+        <v>2898669.028299959</v>
       </c>
       <c r="AF8" t="n">
         <v>3.837442213157759e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.67083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2345732.400175838</v>
+        <v>2622024.124546544</v>
       </c>
     </row>
     <row r="9">
@@ -8273,28 +8273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1881.188494276038</v>
+        <v>2094.784925650226</v>
       </c>
       <c r="AB9" t="n">
-        <v>2573.925090047548</v>
+        <v>2866.177150663208</v>
       </c>
       <c r="AC9" t="n">
-        <v>2328.273291979962</v>
+        <v>2592.633226108807</v>
       </c>
       <c r="AD9" t="n">
-        <v>1881188.494276038</v>
+        <v>2094784.925650226</v>
       </c>
       <c r="AE9" t="n">
-        <v>2573925.090047548</v>
+        <v>2866177.150663208</v>
       </c>
       <c r="AF9" t="n">
         <v>3.849508376704005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.53333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2328273.291979962</v>
+        <v>2592633.226108807</v>
       </c>
     </row>
   </sheetData>
@@ -8570,28 +8570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1460.247911452487</v>
+        <v>1699.039738248562</v>
       </c>
       <c r="AB2" t="n">
-        <v>1997.975614040498</v>
+        <v>2324.70112621478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1807.291625612859</v>
+        <v>2102.834913467364</v>
       </c>
       <c r="AD2" t="n">
-        <v>1460247.911452487</v>
+        <v>1699039.738248562</v>
       </c>
       <c r="AE2" t="n">
-        <v>1997975.614040498</v>
+        <v>2324701.12621478</v>
       </c>
       <c r="AF2" t="n">
         <v>5.988414759546432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.16666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1807291.625612859</v>
+        <v>2102834.913467364</v>
       </c>
     </row>
     <row r="3">
@@ -8676,28 +8676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1449.410940870632</v>
+        <v>1688.270087474412</v>
       </c>
       <c r="AB3" t="n">
-        <v>1983.147992797004</v>
+        <v>2309.965614902128</v>
       </c>
       <c r="AC3" t="n">
-        <v>1793.879131730147</v>
+        <v>2089.505738672971</v>
       </c>
       <c r="AD3" t="n">
-        <v>1449410.940870632</v>
+        <v>1688270.087474412</v>
       </c>
       <c r="AE3" t="n">
-        <v>1983147.992797004</v>
+        <v>2309965.614902128</v>
       </c>
       <c r="AF3" t="n">
         <v>6.020137640526451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.90000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1793879.131730147</v>
+        <v>2089505.738672971</v>
       </c>
     </row>
   </sheetData>
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4900.268975858205</v>
+        <v>5283.671076556662</v>
       </c>
       <c r="AB2" t="n">
-        <v>6704.764197379249</v>
+        <v>7229.351866061826</v>
       </c>
       <c r="AC2" t="n">
-        <v>6064.870912576773</v>
+        <v>6539.39267042368</v>
       </c>
       <c r="AD2" t="n">
-        <v>4900268.975858205</v>
+        <v>5283671.076556662</v>
       </c>
       <c r="AE2" t="n">
-        <v>6704764.197379249</v>
+        <v>7229351.866061825</v>
       </c>
       <c r="AF2" t="n">
         <v>2.386952268035084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6064870.912576773</v>
+        <v>6539392.67042368</v>
       </c>
     </row>
     <row r="3">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2551.010261134326</v>
+        <v>2809.796758064853</v>
       </c>
       <c r="AB3" t="n">
-        <v>3490.404781914045</v>
+        <v>3844.487883868896</v>
       </c>
       <c r="AC3" t="n">
-        <v>3157.285448341916</v>
+        <v>3477.575356004937</v>
       </c>
       <c r="AD3" t="n">
-        <v>2551010.261134326</v>
+        <v>2809796.758064853</v>
       </c>
       <c r="AE3" t="n">
-        <v>3490404.781914045</v>
+        <v>3844487.883868896</v>
       </c>
       <c r="AF3" t="n">
         <v>3.510962085577703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3157285.448341915</v>
+        <v>3477575.356004938</v>
       </c>
     </row>
     <row r="4">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2090.339668311784</v>
+        <v>2329.982432064052</v>
       </c>
       <c r="AB4" t="n">
-        <v>2860.094953461838</v>
+        <v>3187.984755120455</v>
       </c>
       <c r="AC4" t="n">
-        <v>2587.131505271919</v>
+        <v>2883.727964456344</v>
       </c>
       <c r="AD4" t="n">
-        <v>2090339.668311784</v>
+        <v>2329982.432064052</v>
       </c>
       <c r="AE4" t="n">
-        <v>2860094.953461838</v>
+        <v>3187984.755120455</v>
       </c>
       <c r="AF4" t="n">
         <v>3.913418551348545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.71666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2587131.505271919</v>
+        <v>2883727.964456344</v>
       </c>
     </row>
     <row r="5">
@@ -9291,28 +9291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1872.09125246281</v>
+        <v>2092.523974258964</v>
       </c>
       <c r="AB5" t="n">
-        <v>2561.477842456706</v>
+        <v>2863.083617223548</v>
       </c>
       <c r="AC5" t="n">
-        <v>2317.013992229368</v>
+        <v>2589.834935158826</v>
       </c>
       <c r="AD5" t="n">
-        <v>1872091.25246281</v>
+        <v>2092523.974258964</v>
       </c>
       <c r="AE5" t="n">
-        <v>2561477.842456706</v>
+        <v>2863083.617223548</v>
       </c>
       <c r="AF5" t="n">
         <v>4.120024821638477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>2317013.992229369</v>
+        <v>2589834.935158826</v>
       </c>
     </row>
     <row r="6">
@@ -9397,28 +9397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1747.723469259204</v>
+        <v>1958.601912690547</v>
       </c>
       <c r="AB6" t="n">
-        <v>2391.312354758171</v>
+        <v>2679.845544361264</v>
       </c>
       <c r="AC6" t="n">
-        <v>2163.08885984802</v>
+        <v>2424.084846794269</v>
       </c>
       <c r="AD6" t="n">
-        <v>1747723.469259204</v>
+        <v>1958601.912690547</v>
       </c>
       <c r="AE6" t="n">
-        <v>2391312.354758171</v>
+        <v>2679845.544361264</v>
       </c>
       <c r="AF6" t="n">
         <v>4.228481909296098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.15833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2163088.85984802</v>
+        <v>2424084.846794269</v>
       </c>
     </row>
     <row r="7">
@@ -9503,28 +9503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1748.703551821728</v>
+        <v>1959.581995253071</v>
       </c>
       <c r="AB7" t="n">
-        <v>2392.653346958407</v>
+        <v>2681.1865365615</v>
       </c>
       <c r="AC7" t="n">
-        <v>2164.301869634759</v>
+        <v>2425.297856581009</v>
       </c>
       <c r="AD7" t="n">
-        <v>1748703.551821728</v>
+        <v>1959581.995253071</v>
       </c>
       <c r="AE7" t="n">
-        <v>2392653.346958407</v>
+        <v>2681186.5365615</v>
       </c>
       <c r="AF7" t="n">
         <v>4.234308116484317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.10416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2164301.86963476</v>
+        <v>2425297.856581009</v>
       </c>
     </row>
   </sheetData>
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6143.597017000173</v>
+        <v>6577.793590248178</v>
       </c>
       <c r="AB2" t="n">
-        <v>8405.940475031719</v>
+        <v>9000.027381950567</v>
       </c>
       <c r="AC2" t="n">
-        <v>7603.689313905928</v>
+        <v>8141.07740023463</v>
       </c>
       <c r="AD2" t="n">
-        <v>6143597.017000173</v>
+        <v>6577793.590248178</v>
       </c>
       <c r="AE2" t="n">
-        <v>8405940.475031719</v>
+        <v>9000027.381950567</v>
       </c>
       <c r="AF2" t="n">
         <v>2.028865556528263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.88333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7603689.313905928</v>
+        <v>8141077.400234629</v>
       </c>
     </row>
     <row r="3">
@@ -9906,28 +9906,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2896.500714954982</v>
+        <v>3176.314006686889</v>
       </c>
       <c r="AB3" t="n">
-        <v>3963.120062794593</v>
+        <v>4345.97295303341</v>
       </c>
       <c r="AC3" t="n">
-        <v>3584.885446275269</v>
+        <v>3931.199394007086</v>
       </c>
       <c r="AD3" t="n">
-        <v>2896500.714954982</v>
+        <v>3176314.006686889</v>
       </c>
       <c r="AE3" t="n">
-        <v>3963120.062794593</v>
+        <v>4345972.95303341</v>
       </c>
       <c r="AF3" t="n">
         <v>3.173592453101549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3584885.446275269</v>
+        <v>3931199.394007086</v>
       </c>
     </row>
     <row r="4">
@@ -10012,28 +10012,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2345.303665214431</v>
+        <v>2586.479440823695</v>
       </c>
       <c r="AB4" t="n">
-        <v>3208.947942241909</v>
+        <v>3538.935278354813</v>
       </c>
       <c r="AC4" t="n">
-        <v>2902.690454420943</v>
+        <v>3201.184262315354</v>
       </c>
       <c r="AD4" t="n">
-        <v>2345303.665214431</v>
+        <v>2586479.440823695</v>
       </c>
       <c r="AE4" t="n">
-        <v>3208947.942241909</v>
+        <v>3538935.278354813</v>
       </c>
       <c r="AF4" t="n">
         <v>3.588164647721586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2902690.454420943</v>
+        <v>3201184.262315354</v>
       </c>
     </row>
     <row r="5">
@@ -10118,28 +10118,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2092.544892956145</v>
+        <v>2324.0354127132</v>
       </c>
       <c r="AB5" t="n">
-        <v>2863.112239107898</v>
+        <v>3179.847780880643</v>
       </c>
       <c r="AC5" t="n">
-        <v>2589.860825410705</v>
+        <v>2876.367571617665</v>
       </c>
       <c r="AD5" t="n">
-        <v>2092544.892956145</v>
+        <v>2324035.4127132</v>
       </c>
       <c r="AE5" t="n">
-        <v>2863112.239107898</v>
+        <v>3179847.780880643</v>
       </c>
       <c r="AF5" t="n">
         <v>3.802642303509707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.35416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2589860.825410705</v>
+        <v>2876367.571617665</v>
       </c>
     </row>
     <row r="6">
@@ -10224,28 +10224,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1922.923968297808</v>
+        <v>2144.864882847916</v>
       </c>
       <c r="AB6" t="n">
-        <v>2631.0294068433</v>
+        <v>2934.69875747287</v>
       </c>
       <c r="AC6" t="n">
-        <v>2379.92765292714</v>
+        <v>2654.615226935233</v>
       </c>
       <c r="AD6" t="n">
-        <v>1922923.968297808</v>
+        <v>2144864.882847916</v>
       </c>
       <c r="AE6" t="n">
-        <v>2631029.4068433</v>
+        <v>2934698.757472869</v>
       </c>
       <c r="AF6" t="n">
         <v>3.939281914593658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.74166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2379927.65292714</v>
+        <v>2654615.226935233</v>
       </c>
     </row>
     <row r="7">
@@ -10330,28 +10330,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1816.58843918072</v>
+        <v>2038.495188312047</v>
       </c>
       <c r="AB7" t="n">
-        <v>2485.536444712843</v>
+        <v>2789.159048709164</v>
       </c>
       <c r="AC7" t="n">
-        <v>2248.320334901759</v>
+        <v>2522.965623709672</v>
       </c>
       <c r="AD7" t="n">
-        <v>1816588.43918072</v>
+        <v>2038495.188312047</v>
       </c>
       <c r="AE7" t="n">
-        <v>2485536.444712843</v>
+        <v>2789159.048709164</v>
       </c>
       <c r="AF7" t="n">
         <v>4.016273893594522e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.8875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2248320.334901758</v>
+        <v>2522965.623709672</v>
       </c>
     </row>
     <row r="8">
@@ -10436,28 +10436,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1811.452541703536</v>
+        <v>2033.359290834863</v>
       </c>
       <c r="AB8" t="n">
-        <v>2478.509283204754</v>
+        <v>2782.131887201076</v>
       </c>
       <c r="AC8" t="n">
-        <v>2241.963835825318</v>
+        <v>2516.609124633233</v>
       </c>
       <c r="AD8" t="n">
-        <v>1811452.541703536</v>
+        <v>2033359.290834863</v>
       </c>
       <c r="AE8" t="n">
-        <v>2478509.283204754</v>
+        <v>2782131.887201076</v>
       </c>
       <c r="AF8" t="n">
         <v>4.025157583479237e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.79166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2241963.835825318</v>
+        <v>2516609.124633233</v>
       </c>
     </row>
   </sheetData>
@@ -10733,28 +10733,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9914.896264468189</v>
+        <v>10471.24119646903</v>
       </c>
       <c r="AB2" t="n">
-        <v>13565.99848339819</v>
+        <v>14327.21416356793</v>
       </c>
       <c r="AC2" t="n">
-        <v>12271.27862814061</v>
+        <v>12959.84495216784</v>
       </c>
       <c r="AD2" t="n">
-        <v>9914896.264468189</v>
+        <v>10471241.19646903</v>
       </c>
       <c r="AE2" t="n">
-        <v>13565998.48339819</v>
+        <v>14327214.16356793</v>
       </c>
       <c r="AF2" t="n">
         <v>1.461710140597488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.6083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12271278.62814061</v>
+        <v>12959844.95216784</v>
       </c>
     </row>
     <row r="3">
@@ -10839,28 +10839,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3665.069093752736</v>
+        <v>3967.682812613863</v>
       </c>
       <c r="AB3" t="n">
-        <v>5014.709225509589</v>
+        <v>5428.758666030459</v>
       </c>
       <c r="AC3" t="n">
-        <v>4536.112415215366</v>
+        <v>4910.64555825495</v>
       </c>
       <c r="AD3" t="n">
-        <v>3665069.093752736</v>
+        <v>3967682.812613863</v>
       </c>
       <c r="AE3" t="n">
-        <v>5014709.225509589</v>
+        <v>5428758.666030459</v>
       </c>
       <c r="AF3" t="n">
         <v>2.641922827125689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4536112.415215367</v>
+        <v>4910645.55825495</v>
       </c>
     </row>
     <row r="4">
@@ -10945,28 +10945,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2862.277956993005</v>
+        <v>3116.044346581352</v>
       </c>
       <c r="AB4" t="n">
-        <v>3916.294975549489</v>
+        <v>4263.509345167264</v>
       </c>
       <c r="AC4" t="n">
-        <v>3542.529279637417</v>
+        <v>3856.605997137286</v>
       </c>
       <c r="AD4" t="n">
-        <v>2862277.956993005</v>
+        <v>3116044.346581352</v>
       </c>
       <c r="AE4" t="n">
-        <v>3916294.975549489</v>
+        <v>4263509.345167263</v>
       </c>
       <c r="AF4" t="n">
         <v>3.074167551680168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.12083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3542529.279637417</v>
+        <v>3856605.997137286</v>
       </c>
     </row>
     <row r="5">
@@ -11051,28 +11051,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2526.965446888163</v>
+        <v>2771.002155888663</v>
       </c>
       <c r="AB5" t="n">
-        <v>3457.505606280105</v>
+        <v>3791.407397674373</v>
       </c>
       <c r="AC5" t="n">
-        <v>3127.526123856198</v>
+        <v>3429.56079691389</v>
       </c>
       <c r="AD5" t="n">
-        <v>2526965.446888163</v>
+        <v>2771002.155888663</v>
       </c>
       <c r="AE5" t="n">
-        <v>3457505.606280105</v>
+        <v>3791407.397674372</v>
       </c>
       <c r="AF5" t="n">
         <v>3.300673016771439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.54166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3127526.123856198</v>
+        <v>3429560.796913891</v>
       </c>
     </row>
     <row r="6">
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2329.525359028759</v>
+        <v>2563.697747826002</v>
       </c>
       <c r="AB6" t="n">
-        <v>3187.35936762893</v>
+        <v>3507.764360938007</v>
       </c>
       <c r="AC6" t="n">
-        <v>2883.162263069273</v>
+        <v>3172.988253508152</v>
       </c>
       <c r="AD6" t="n">
-        <v>2329525.359028759</v>
+        <v>2563697.747826003</v>
       </c>
       <c r="AE6" t="n">
-        <v>3187359.36762893</v>
+        <v>3507764.360938007</v>
       </c>
       <c r="AF6" t="n">
         <v>3.447190134258322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2883162.263069273</v>
+        <v>3172988.253508152</v>
       </c>
     </row>
     <row r="7">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2196.561601926932</v>
+        <v>2421.005321166185</v>
       </c>
       <c r="AB7" t="n">
-        <v>3005.432489215234</v>
+        <v>3312.526287636458</v>
       </c>
       <c r="AC7" t="n">
-        <v>2718.598230595409</v>
+        <v>2996.383427904154</v>
       </c>
       <c r="AD7" t="n">
-        <v>2196561.601926932</v>
+        <v>2421005.321166185</v>
       </c>
       <c r="AE7" t="n">
-        <v>3005432.489215234</v>
+        <v>3312526.287636458</v>
       </c>
       <c r="AF7" t="n">
         <v>3.544483653219428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.20833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2718598.230595409</v>
+        <v>2996383.427904154</v>
       </c>
     </row>
     <row r="8">
@@ -11369,28 +11369,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2084.637565926787</v>
+        <v>2309.047119747261</v>
       </c>
       <c r="AB8" t="n">
-        <v>2852.293085419682</v>
+        <v>3159.340137207826</v>
       </c>
       <c r="AC8" t="n">
-        <v>2580.074236565716</v>
+        <v>2857.817148674323</v>
       </c>
       <c r="AD8" t="n">
-        <v>2084637.565926787</v>
+        <v>2309047.119747261</v>
       </c>
       <c r="AE8" t="n">
-        <v>2852293.085419682</v>
+        <v>3159340.137207826</v>
       </c>
       <c r="AF8" t="n">
         <v>3.617549932281128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.29166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2580074.236565716</v>
+        <v>2857817.148674323</v>
       </c>
     </row>
     <row r="9">
@@ -11475,28 +11475,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1986.656083735637</v>
+        <v>2211.132957363815</v>
       </c>
       <c r="AB9" t="n">
-        <v>2718.230498847833</v>
+        <v>3025.369660566811</v>
       </c>
       <c r="AC9" t="n">
-        <v>2458.806395098261</v>
+        <v>2736.632626295187</v>
       </c>
       <c r="AD9" t="n">
-        <v>1986656.083735637</v>
+        <v>2211132.957363815</v>
       </c>
       <c r="AE9" t="n">
-        <v>2718230.498847833</v>
+        <v>3025369.660566811</v>
       </c>
       <c r="AF9" t="n">
         <v>3.674849277440041e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.60416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2458806.395098262</v>
+        <v>2736632.626295187</v>
       </c>
     </row>
     <row r="10">
@@ -11581,28 +11581,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1959.458647477948</v>
+        <v>2174.139531740429</v>
       </c>
       <c r="AB10" t="n">
-        <v>2681.017766693858</v>
+        <v>2974.753623593966</v>
       </c>
       <c r="AC10" t="n">
-        <v>2425.145193872665</v>
+        <v>2690.847312851089</v>
       </c>
       <c r="AD10" t="n">
-        <v>1959458.647477949</v>
+        <v>2174139.531740429</v>
       </c>
       <c r="AE10" t="n">
-        <v>2681017.766693858</v>
+        <v>2974753.623593966</v>
       </c>
       <c r="AF10" t="n">
         <v>3.688693414525416e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.44166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2425145.193872665</v>
+        <v>2690847.312851089</v>
       </c>
     </row>
     <row r="11">
@@ -11687,28 +11687,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1966.06085178723</v>
+        <v>2180.741736049711</v>
       </c>
       <c r="AB11" t="n">
-        <v>2690.051193898514</v>
+        <v>2983.787050798621</v>
       </c>
       <c r="AC11" t="n">
-        <v>2433.316483463403</v>
+        <v>2699.018602441828</v>
       </c>
       <c r="AD11" t="n">
-        <v>1966060.85178723</v>
+        <v>2180741.736049711</v>
       </c>
       <c r="AE11" t="n">
-        <v>2690051.193898514</v>
+        <v>2983787.050798621</v>
       </c>
       <c r="AF11" t="n">
         <v>3.686001498981037e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.47083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2433316.483463403</v>
+        <v>2699018.602441828</v>
       </c>
     </row>
   </sheetData>
@@ -11984,28 +11984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3895.329349124744</v>
+        <v>4247.457306469027</v>
       </c>
       <c r="AB2" t="n">
-        <v>5329.761465275114</v>
+        <v>5811.558471302675</v>
       </c>
       <c r="AC2" t="n">
-        <v>4821.096511396253</v>
+        <v>5256.911487374871</v>
       </c>
       <c r="AD2" t="n">
-        <v>3895329.349124744</v>
+        <v>4247457.306469027</v>
       </c>
       <c r="AE2" t="n">
-        <v>5329761.465275113</v>
+        <v>5811558.471302675</v>
       </c>
       <c r="AF2" t="n">
         <v>2.822766742501857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4821096.511396253</v>
+        <v>5256911.487374871</v>
       </c>
     </row>
     <row r="3">
@@ -12090,28 +12090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2208.941932352036</v>
+        <v>2465.872469804257</v>
       </c>
       <c r="AB3" t="n">
-        <v>3022.371803484491</v>
+        <v>3373.915499801971</v>
       </c>
       <c r="AC3" t="n">
-        <v>2733.920880485286</v>
+        <v>3051.913739820888</v>
       </c>
       <c r="AD3" t="n">
-        <v>2208941.932352036</v>
+        <v>2465872.469804257</v>
       </c>
       <c r="AE3" t="n">
-        <v>3022371.803484492</v>
+        <v>3373915.499801971</v>
       </c>
       <c r="AF3" t="n">
         <v>3.923492360841576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2733920.880485286</v>
+        <v>3051913.739820888</v>
       </c>
     </row>
     <row r="4">
@@ -12196,28 +12196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1837.201145001598</v>
+        <v>2065.539302097277</v>
       </c>
       <c r="AB4" t="n">
-        <v>2513.73965818537</v>
+        <v>2826.161998292212</v>
       </c>
       <c r="AC4" t="n">
-        <v>2273.831873263925</v>
+        <v>2556.43706371848</v>
       </c>
       <c r="AD4" t="n">
-        <v>1837201.145001598</v>
+        <v>2065539.302097277</v>
       </c>
       <c r="AE4" t="n">
-        <v>2513739.658185369</v>
+        <v>2826161.998292211</v>
       </c>
       <c r="AF4" t="n">
         <v>4.315649832880726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.2875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2273831.873263925</v>
+        <v>2556437.06371848</v>
       </c>
     </row>
     <row r="5">
@@ -12302,28 +12302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1672.014628295518</v>
+        <v>1890.934528628477</v>
       </c>
       <c r="AB5" t="n">
-        <v>2287.72417851332</v>
+        <v>2587.260044213245</v>
       </c>
       <c r="AC5" t="n">
-        <v>2069.386993757059</v>
+        <v>2340.335576835811</v>
       </c>
       <c r="AD5" t="n">
-        <v>1672014.628295518</v>
+        <v>1890934.528628477</v>
       </c>
       <c r="AE5" t="n">
-        <v>2287724.17851332</v>
+        <v>2587260.044213245</v>
       </c>
       <c r="AF5" t="n">
         <v>4.479128681249125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.59583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2069386.993757059</v>
+        <v>2340335.576835811</v>
       </c>
     </row>
     <row r="6">
@@ -12408,28 +12408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1673.853132892721</v>
+        <v>1892.773033225679</v>
       </c>
       <c r="AB6" t="n">
-        <v>2290.239701612312</v>
+        <v>2589.775567312236</v>
       </c>
       <c r="AC6" t="n">
-        <v>2071.662438862042</v>
+        <v>2342.611021940793</v>
       </c>
       <c r="AD6" t="n">
-        <v>1673853.132892721</v>
+        <v>1892773.03322568</v>
       </c>
       <c r="AE6" t="n">
-        <v>2290239.701612312</v>
+        <v>2589775.567312236</v>
       </c>
       <c r="AF6" t="n">
         <v>4.485840422824368e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.52916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2071662.438862042</v>
+        <v>2342611.021940793</v>
       </c>
     </row>
   </sheetData>
@@ -12705,28 +12705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2709.91667314376</v>
+        <v>3001.244122345327</v>
       </c>
       <c r="AB2" t="n">
-        <v>3707.827545281491</v>
+        <v>4106.434613739074</v>
       </c>
       <c r="AC2" t="n">
-        <v>3353.957688328329</v>
+        <v>3714.522257620841</v>
       </c>
       <c r="AD2" t="n">
-        <v>2709916.67314376</v>
+        <v>3001244.122345327</v>
       </c>
       <c r="AE2" t="n">
-        <v>3707827.545281491</v>
+        <v>4106434.613739074</v>
       </c>
       <c r="AF2" t="n">
         <v>3.718825411622126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3353957.688328329</v>
+        <v>3714522.257620841</v>
       </c>
     </row>
     <row r="3">
@@ -12811,28 +12811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1710.568030766779</v>
+        <v>1936.190431614302</v>
       </c>
       <c r="AB3" t="n">
-        <v>2340.474644630576</v>
+        <v>2649.181167227982</v>
       </c>
       <c r="AC3" t="n">
-        <v>2117.103029423828</v>
+        <v>2396.347034776863</v>
       </c>
       <c r="AD3" t="n">
-        <v>1710568.030766779</v>
+        <v>1936190.431614302</v>
       </c>
       <c r="AE3" t="n">
-        <v>2340474.644630576</v>
+        <v>2649181.167227982</v>
       </c>
       <c r="AF3" t="n">
         <v>4.781814205621415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2117103.029423828</v>
+        <v>2396347.034776864</v>
       </c>
     </row>
     <row r="4">
@@ -12917,28 +12917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1566.863297843729</v>
+        <v>1792.41736785369</v>
       </c>
       <c r="AB4" t="n">
-        <v>2143.851489239883</v>
+        <v>2452.464518570794</v>
       </c>
       <c r="AC4" t="n">
-        <v>1939.245312021291</v>
+        <v>2218.404746973967</v>
       </c>
       <c r="AD4" t="n">
-        <v>1566863.297843729</v>
+        <v>1792417.36785369</v>
       </c>
       <c r="AE4" t="n">
-        <v>2143851.489239884</v>
+        <v>2452464.518570794</v>
       </c>
       <c r="AF4" t="n">
         <v>4.971516821165904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1939245.312021291</v>
+        <v>2218404.746973967</v>
       </c>
     </row>
     <row r="5">
@@ -13023,28 +13023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1572.725369258912</v>
+        <v>1798.279439268874</v>
       </c>
       <c r="AB5" t="n">
-        <v>2151.872233966476</v>
+        <v>2460.485263297386</v>
       </c>
       <c r="AC5" t="n">
-        <v>1946.500568128363</v>
+        <v>2225.660003081039</v>
       </c>
       <c r="AD5" t="n">
-        <v>1572725.369258912</v>
+        <v>1798279.439268874</v>
       </c>
       <c r="AE5" t="n">
-        <v>2151872.233966475</v>
+        <v>2460485.263297386</v>
       </c>
       <c r="AF5" t="n">
         <v>4.975332678375131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>1946500.568128363</v>
+        <v>2225660.003081039</v>
       </c>
     </row>
   </sheetData>
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2038.513363551612</v>
+        <v>2298.978966019394</v>
       </c>
       <c r="AB2" t="n">
-        <v>2789.183916873772</v>
+        <v>3145.564445101763</v>
       </c>
       <c r="AC2" t="n">
-        <v>2522.988118491553</v>
+        <v>2845.356189288559</v>
       </c>
       <c r="AD2" t="n">
-        <v>2038513.363551612</v>
+        <v>2298978.966019394</v>
       </c>
       <c r="AE2" t="n">
-        <v>2789183.916873772</v>
+        <v>3145564.445101763</v>
       </c>
       <c r="AF2" t="n">
         <v>4.625139468270064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.15000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2522988.118491553</v>
+        <v>2845356.189288558</v>
       </c>
     </row>
     <row r="3">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1505.321104268192</v>
+        <v>1728.562837065362</v>
       </c>
       <c r="AB3" t="n">
-        <v>2059.646744939873</v>
+        <v>2365.095932483124</v>
       </c>
       <c r="AC3" t="n">
-        <v>1863.076950335173</v>
+        <v>2139.374496119923</v>
       </c>
       <c r="AD3" t="n">
-        <v>1505321.104268192</v>
+        <v>1728562.837065362</v>
       </c>
       <c r="AE3" t="n">
-        <v>2059646.744939873</v>
+        <v>2365095.932483124</v>
       </c>
       <c r="AF3" t="n">
         <v>5.417320867600503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.08750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1863076.950335173</v>
+        <v>2139374.496119923</v>
       </c>
     </row>
     <row r="4">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1514.378453541869</v>
+        <v>1737.620186339039</v>
       </c>
       <c r="AB4" t="n">
-        <v>2072.039409798166</v>
+        <v>2377.488597341416</v>
       </c>
       <c r="AC4" t="n">
-        <v>1874.286876652605</v>
+        <v>2150.584422437355</v>
       </c>
       <c r="AD4" t="n">
-        <v>1514378.453541869</v>
+        <v>1737620.186339039</v>
       </c>
       <c r="AE4" t="n">
-        <v>2072039.409798166</v>
+        <v>2377488.597341416</v>
       </c>
       <c r="AF4" t="n">
         <v>5.416708671774128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.08750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1874286.876652605</v>
+        <v>2150584.422437355</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1433.366792930946</v>
+        <v>1688.560329335894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1961.195681768074</v>
+        <v>2310.362736621576</v>
       </c>
       <c r="AC2" t="n">
-        <v>1774.021918455555</v>
+        <v>2089.864959652878</v>
       </c>
       <c r="AD2" t="n">
-        <v>1433366.792930946</v>
+        <v>1688560.329335894</v>
       </c>
       <c r="AE2" t="n">
-        <v>1961195.681768074</v>
+        <v>2310362.736621576</v>
       </c>
       <c r="AF2" t="n">
         <v>6.375461762880606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.91666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1774021.918455555</v>
+        <v>2089864.959652879</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1446.536968502696</v>
+        <v>1701.730504907644</v>
       </c>
       <c r="AB3" t="n">
-        <v>1979.215697012482</v>
+        <v>2328.382751865984</v>
       </c>
       <c r="AC3" t="n">
-        <v>1790.322128736287</v>
+        <v>2106.165169933611</v>
       </c>
       <c r="AD3" t="n">
-        <v>1446536.968502696</v>
+        <v>1701730.504907644</v>
       </c>
       <c r="AE3" t="n">
-        <v>1979215.697012482</v>
+        <v>2328382.751865984</v>
       </c>
       <c r="AF3" t="n">
         <v>6.375461762880606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.91666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1790322.128736287</v>
+        <v>2106165.169933611</v>
       </c>
     </row>
   </sheetData>
@@ -24541,28 +24541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5490.949482379646</v>
+        <v>5894.872109807501</v>
       </c>
       <c r="AB2" t="n">
-        <v>7512.959325386729</v>
+        <v>8065.624084042216</v>
       </c>
       <c r="AC2" t="n">
-        <v>6795.933031876174</v>
+        <v>7295.852241635422</v>
       </c>
       <c r="AD2" t="n">
-        <v>5490949.482379646</v>
+        <v>5894872.109807502</v>
       </c>
       <c r="AE2" t="n">
-        <v>7512959.325386729</v>
+        <v>8065624.084042216</v>
       </c>
       <c r="AF2" t="n">
         <v>2.198778393178942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6795933.031876174</v>
+        <v>7295852.241635421</v>
       </c>
     </row>
     <row r="3">
@@ -24647,28 +24647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2719.239101622494</v>
+        <v>2988.47563635931</v>
       </c>
       <c r="AB3" t="n">
-        <v>3720.582903202613</v>
+        <v>4088.964207907159</v>
       </c>
       <c r="AC3" t="n">
-        <v>3365.495692791716</v>
+        <v>3698.719202801656</v>
       </c>
       <c r="AD3" t="n">
-        <v>2719239.101622494</v>
+        <v>2988475.63635931</v>
       </c>
       <c r="AE3" t="n">
-        <v>3720582.903202613</v>
+        <v>4088964.207907159</v>
       </c>
       <c r="AF3" t="n">
         <v>3.336227552063796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>3365495.692791716</v>
+        <v>3698719.202801656</v>
       </c>
     </row>
     <row r="4">
@@ -24753,28 +24753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2215.735596382136</v>
+        <v>2456.110825542299</v>
       </c>
       <c r="AB4" t="n">
-        <v>3031.667194325779</v>
+        <v>3360.559187469409</v>
       </c>
       <c r="AC4" t="n">
-        <v>2742.329132270843</v>
+        <v>3039.832135191644</v>
       </c>
       <c r="AD4" t="n">
-        <v>2215735.596382136</v>
+        <v>2456110.825542299</v>
       </c>
       <c r="AE4" t="n">
-        <v>3031667.194325779</v>
+        <v>3360559.187469409</v>
       </c>
       <c r="AF4" t="n">
         <v>3.744665318867956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>2742329.132270843</v>
+        <v>3039832.135191644</v>
       </c>
     </row>
     <row r="5">
@@ -24859,28 +24859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1978.501405938789</v>
+        <v>2209.323519714442</v>
       </c>
       <c r="AB5" t="n">
-        <v>2707.072908927191</v>
+        <v>3022.893908148183</v>
       </c>
       <c r="AC5" t="n">
-        <v>2448.71366989987</v>
+        <v>2734.393156212653</v>
       </c>
       <c r="AD5" t="n">
-        <v>1978501.405938789</v>
+        <v>2209323.519714442</v>
       </c>
       <c r="AE5" t="n">
-        <v>2707072.908927192</v>
+        <v>3022893.908148183</v>
       </c>
       <c r="AF5" t="n">
         <v>3.955191281736127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.82083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2448713.66989987</v>
+        <v>2734393.156212653</v>
       </c>
     </row>
     <row r="6">
@@ -24965,28 +24965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1817.83402447001</v>
+        <v>2038.96838324574</v>
       </c>
       <c r="AB6" t="n">
-        <v>2487.240709456995</v>
+        <v>2789.80649489333</v>
       </c>
       <c r="AC6" t="n">
-        <v>2249.861947010679</v>
+        <v>2523.551278538717</v>
       </c>
       <c r="AD6" t="n">
-        <v>1817834.02447001</v>
+        <v>2038968.38324574</v>
       </c>
       <c r="AE6" t="n">
-        <v>2487240.709456995</v>
+        <v>2789806.49489333</v>
       </c>
       <c r="AF6" t="n">
         <v>4.09394702999015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.26666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2249861.947010679</v>
+        <v>2523551.278538717</v>
       </c>
     </row>
     <row r="7">
@@ -25071,28 +25071,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1774.228539918491</v>
+        <v>1995.430218501925</v>
       </c>
       <c r="AB7" t="n">
-        <v>2427.577761755398</v>
+        <v>2730.235657122574</v>
       </c>
       <c r="AC7" t="n">
-        <v>2195.89314730025</v>
+        <v>2469.665797916607</v>
       </c>
       <c r="AD7" t="n">
-        <v>1774228.539918491</v>
+        <v>1995430.218501925</v>
       </c>
       <c r="AE7" t="n">
-        <v>2427577.761755398</v>
+        <v>2730235.657122574</v>
       </c>
       <c r="AF7" t="n">
         <v>4.120915231845164e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.97916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2195893.14730025</v>
+        <v>2469665.797916607</v>
       </c>
     </row>
     <row r="8">
@@ -25177,28 +25177,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1778.489314101881</v>
+        <v>1999.690992685315</v>
       </c>
       <c r="AB8" t="n">
-        <v>2433.407540965203</v>
+        <v>2736.065436332379</v>
       </c>
       <c r="AC8" t="n">
-        <v>2201.166540564418</v>
+        <v>2474.939191180775</v>
       </c>
       <c r="AD8" t="n">
-        <v>1778489.314101881</v>
+        <v>1999690.992685315</v>
       </c>
       <c r="AE8" t="n">
-        <v>2433407.540965203</v>
+        <v>2736065.436332379</v>
       </c>
       <c r="AF8" t="n">
         <v>4.125264941821779e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.93333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2201166.540564418</v>
+        <v>2474939.191180775</v>
       </c>
     </row>
   </sheetData>
@@ -25474,28 +25474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8753.564018465704</v>
+        <v>9269.419628428534</v>
       </c>
       <c r="AB2" t="n">
-        <v>11977.01247005474</v>
+        <v>12682.82887354926</v>
       </c>
       <c r="AC2" t="n">
-        <v>10833.94320975484</v>
+        <v>11472.39748631936</v>
       </c>
       <c r="AD2" t="n">
-        <v>8753564.018465703</v>
+        <v>9269419.628428534</v>
       </c>
       <c r="AE2" t="n">
-        <v>11977012.47005474</v>
+        <v>12682828.87354926</v>
       </c>
       <c r="AF2" t="n">
         <v>1.589840071810396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>104</v>
+        <v>103.0166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10833943.20975484</v>
+        <v>11472397.48631936</v>
       </c>
     </row>
     <row r="3">
@@ -25580,28 +25580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3460.261757919025</v>
+        <v>3752.250136481337</v>
       </c>
       <c r="AB3" t="n">
-        <v>4734.482793159922</v>
+        <v>5133.994174327024</v>
       </c>
       <c r="AC3" t="n">
-        <v>4282.630400268894</v>
+        <v>4644.012975935138</v>
       </c>
       <c r="AD3" t="n">
-        <v>3460261.757919025</v>
+        <v>3752250.136481337</v>
       </c>
       <c r="AE3" t="n">
-        <v>4734482.793159922</v>
+        <v>5133994.174327023</v>
       </c>
       <c r="AF3" t="n">
         <v>2.763059506755769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4282630.400268894</v>
+        <v>4644012.975935139</v>
       </c>
     </row>
     <row r="4">
@@ -25686,28 +25686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2727.161695341335</v>
+        <v>2980.204758731808</v>
       </c>
       <c r="AB4" t="n">
-        <v>3731.422945448899</v>
+        <v>4077.647628251842</v>
       </c>
       <c r="AC4" t="n">
-        <v>3375.301176620111</v>
+        <v>3688.482661625722</v>
       </c>
       <c r="AD4" t="n">
-        <v>2727161.695341335</v>
+        <v>2980204.758731808</v>
       </c>
       <c r="AE4" t="n">
-        <v>3731422.945448899</v>
+        <v>4077647.628251842</v>
       </c>
       <c r="AF4" t="n">
         <v>3.18950610203742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3375301.176620111</v>
+        <v>3688482.661625722</v>
       </c>
     </row>
     <row r="5">
@@ -25792,28 +25792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2412.114016700031</v>
+        <v>2655.453905686468</v>
       </c>
       <c r="AB5" t="n">
-        <v>3300.360812609198</v>
+        <v>3633.309184118696</v>
       </c>
       <c r="AC5" t="n">
-        <v>2985.379008739144</v>
+        <v>3286.551254967737</v>
       </c>
       <c r="AD5" t="n">
-        <v>2412114.016700031</v>
+        <v>2655453.905686468</v>
       </c>
       <c r="AE5" t="n">
-        <v>3300360.812609198</v>
+        <v>3633309.184118696</v>
       </c>
       <c r="AF5" t="n">
         <v>3.413537953936537e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.975</v>
       </c>
       <c r="AH5" t="n">
-        <v>2985379.008739144</v>
+        <v>3286551.254967737</v>
       </c>
     </row>
     <row r="6">
@@ -25898,28 +25898,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2231.97829494496</v>
+        <v>2455.846537375335</v>
       </c>
       <c r="AB6" t="n">
-        <v>3053.891171076726</v>
+        <v>3360.197576739798</v>
       </c>
       <c r="AC6" t="n">
-        <v>2762.432083872225</v>
+        <v>3039.505036082543</v>
       </c>
       <c r="AD6" t="n">
-        <v>2231978.294944961</v>
+        <v>2455846.537375335</v>
       </c>
       <c r="AE6" t="n">
-        <v>3053891.171076726</v>
+        <v>3360197.576739797</v>
       </c>
       <c r="AF6" t="n">
         <v>3.557783023492634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.02916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2762432.083872225</v>
+        <v>3039505.036082543</v>
       </c>
     </row>
     <row r="7">
@@ -26004,28 +26004,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2091.009534338463</v>
+        <v>2314.910931157763</v>
       </c>
       <c r="AB7" t="n">
-        <v>2861.011493711944</v>
+        <v>3167.363262672776</v>
       </c>
       <c r="AC7" t="n">
-        <v>2587.960572206926</v>
+        <v>2865.074558305426</v>
       </c>
       <c r="AD7" t="n">
-        <v>2091009.534338463</v>
+        <v>2314910.931157763</v>
       </c>
       <c r="AE7" t="n">
-        <v>2861011.493711944</v>
+        <v>3167363.262672776</v>
       </c>
       <c r="AF7" t="n">
         <v>3.656042607658914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.79583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2587960.572206927</v>
+        <v>2865074.558305427</v>
       </c>
     </row>
     <row r="8">
@@ -26110,28 +26110,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1983.681770538973</v>
+        <v>2207.549001939492</v>
       </c>
       <c r="AB8" t="n">
-        <v>2714.16091231472</v>
+        <v>3020.465934642296</v>
       </c>
       <c r="AC8" t="n">
-        <v>2455.125204192168</v>
+        <v>2732.196905090486</v>
       </c>
       <c r="AD8" t="n">
-        <v>1983681.770538973</v>
+        <v>2207549.001939492</v>
       </c>
       <c r="AE8" t="n">
-        <v>2714160.91231472</v>
+        <v>3020465.934642296</v>
       </c>
       <c r="AF8" t="n">
         <v>3.726396469921969e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.95</v>
       </c>
       <c r="AH8" t="n">
-        <v>2455125.204192168</v>
+        <v>2732196.905090486</v>
       </c>
     </row>
     <row r="9">
@@ -26216,28 +26216,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1915.540918370553</v>
+        <v>2129.638666589186</v>
       </c>
       <c r="AB9" t="n">
-        <v>2620.927592215654</v>
+        <v>2913.865576654422</v>
       </c>
       <c r="AC9" t="n">
-        <v>2370.789941309571</v>
+        <v>2635.770335654546</v>
       </c>
       <c r="AD9" t="n">
-        <v>1915540.918370553</v>
+        <v>2129638.666589186</v>
       </c>
       <c r="AE9" t="n">
-        <v>2620927.592215654</v>
+        <v>2913865.576654422</v>
       </c>
       <c r="AF9" t="n">
         <v>3.769630686955132e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.44166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2370789.941309571</v>
+        <v>2635770.335654546</v>
       </c>
     </row>
     <row r="10">
@@ -26322,28 +26322,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1919.796540383847</v>
+        <v>2133.89428860248</v>
       </c>
       <c r="AB10" t="n">
-        <v>2626.750321999037</v>
+        <v>2919.688306437803</v>
       </c>
       <c r="AC10" t="n">
-        <v>2376.056957934679</v>
+        <v>2641.037352279654</v>
       </c>
       <c r="AD10" t="n">
-        <v>1919796.540383847</v>
+        <v>2133894.28860248</v>
       </c>
       <c r="AE10" t="n">
-        <v>2626750.321999037</v>
+        <v>2919688.306437803</v>
       </c>
       <c r="AF10" t="n">
         <v>3.769630686955132e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.44166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2376056.957934679</v>
+        <v>2641037.352279654</v>
       </c>
     </row>
   </sheetData>
@@ -26619,28 +26619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1472.241662128894</v>
+        <v>1743.030257634523</v>
       </c>
       <c r="AB2" t="n">
-        <v>2014.385992842894</v>
+        <v>2384.890895563399</v>
       </c>
       <c r="AC2" t="n">
-        <v>1822.135820894466</v>
+        <v>2157.280255706222</v>
       </c>
       <c r="AD2" t="n">
-        <v>1472241.662128894</v>
+        <v>1743030.257634523</v>
       </c>
       <c r="AE2" t="n">
-        <v>2014385.992842895</v>
+        <v>2384890.895563399</v>
       </c>
       <c r="AF2" t="n">
         <v>6.701585589866279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.28749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1822135.820894466</v>
+        <v>2157280.255706222</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3074.808223943135</v>
+        <v>3386.29513269485</v>
       </c>
       <c r="AB2" t="n">
-        <v>4207.088262964314</v>
+        <v>4633.278393350998</v>
       </c>
       <c r="AC2" t="n">
-        <v>3805.569663832303</v>
+        <v>4191.08480633647</v>
       </c>
       <c r="AD2" t="n">
-        <v>3074808.223943135</v>
+        <v>3386295.13269485</v>
       </c>
       <c r="AE2" t="n">
-        <v>4207088.262964314</v>
+        <v>4633278.393350998</v>
       </c>
       <c r="AF2" t="n">
         <v>3.376291528467271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>3805569.663832304</v>
+        <v>4191084.80633647</v>
       </c>
     </row>
     <row r="3">
@@ -27022,28 +27022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1880.453854874099</v>
+        <v>2116.497385968181</v>
       </c>
       <c r="AB3" t="n">
-        <v>2572.919924007812</v>
+        <v>2895.885096756379</v>
       </c>
       <c r="AC3" t="n">
-        <v>2327.364057576299</v>
+        <v>2619.50588752221</v>
       </c>
       <c r="AD3" t="n">
-        <v>1880453.854874099</v>
+        <v>2116497.385968181</v>
       </c>
       <c r="AE3" t="n">
-        <v>2572919.924007812</v>
+        <v>2895885.096756379</v>
       </c>
       <c r="AF3" t="n">
         <v>4.450258933827299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2327364.057576299</v>
+        <v>2619505.88752221</v>
       </c>
     </row>
     <row r="4">
@@ -27128,28 +27128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1606.171705451726</v>
+        <v>1823.261701017074</v>
       </c>
       <c r="AB4" t="n">
-        <v>2197.634986693697</v>
+        <v>2494.667095960878</v>
       </c>
       <c r="AC4" t="n">
-        <v>1987.895787963726</v>
+        <v>2256.57956960963</v>
       </c>
       <c r="AD4" t="n">
-        <v>1606171.705451726</v>
+        <v>1823261.701017074</v>
       </c>
       <c r="AE4" t="n">
-        <v>2197634.986693697</v>
+        <v>2494667.095960878</v>
       </c>
       <c r="AF4" t="n">
         <v>4.784509195998886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.27083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1987895.787963726</v>
+        <v>2256579.56960963</v>
       </c>
     </row>
     <row r="5">
@@ -27234,28 +27234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1609.240321200077</v>
+        <v>1826.330316765426</v>
       </c>
       <c r="AB5" t="n">
-        <v>2201.833602138364</v>
+        <v>2498.865711405544</v>
       </c>
       <c r="AC5" t="n">
-        <v>1991.693693443147</v>
+        <v>2260.377475089051</v>
       </c>
       <c r="AD5" t="n">
-        <v>1609240.321200076</v>
+        <v>1826330.316765425</v>
       </c>
       <c r="AE5" t="n">
-        <v>2201833.602138364</v>
+        <v>2498865.711405544</v>
       </c>
       <c r="AF5" t="n">
         <v>4.790747148014529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.21250000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1991693.693443147</v>
+        <v>2260377.475089051</v>
       </c>
     </row>
   </sheetData>
@@ -27531,28 +27531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4374.576788004581</v>
+        <v>4737.52915942596</v>
       </c>
       <c r="AB2" t="n">
-        <v>5985.488954055357</v>
+        <v>6482.096400962649</v>
       </c>
       <c r="AC2" t="n">
-        <v>5414.242288966596</v>
+        <v>5863.454218133967</v>
       </c>
       <c r="AD2" t="n">
-        <v>4374576.788004582</v>
+        <v>4737529.15942596</v>
       </c>
       <c r="AE2" t="n">
-        <v>5985488.954055357</v>
+        <v>6482096.400962649</v>
       </c>
       <c r="AF2" t="n">
         <v>2.592567465470739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>5414242.288966596</v>
+        <v>5863454.218133966</v>
       </c>
     </row>
     <row r="3">
@@ -27637,28 +27637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2384.872035523284</v>
+        <v>2633.233362392757</v>
       </c>
       <c r="AB3" t="n">
-        <v>3263.087132131781</v>
+        <v>3602.906056483054</v>
       </c>
       <c r="AC3" t="n">
-        <v>2951.662676012554</v>
+        <v>3259.049759162584</v>
       </c>
       <c r="AD3" t="n">
-        <v>2384872.035523284</v>
+        <v>2633233.362392757</v>
       </c>
       <c r="AE3" t="n">
-        <v>3263087.132131781</v>
+        <v>3602906.056483054</v>
       </c>
       <c r="AF3" t="n">
         <v>3.704858059922833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.05416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2951662.676012554</v>
+        <v>3259049.759162584</v>
       </c>
     </row>
     <row r="4">
@@ -27743,28 +27743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1971.369206593692</v>
+        <v>2200.586472146141</v>
       </c>
       <c r="AB4" t="n">
-        <v>2697.314319132802</v>
+        <v>3010.939494213898</v>
       </c>
       <c r="AC4" t="n">
-        <v>2439.88642621919</v>
+        <v>2723.579654766131</v>
       </c>
       <c r="AD4" t="n">
-        <v>1971369.206593692</v>
+        <v>2200586.472146141</v>
       </c>
       <c r="AE4" t="n">
-        <v>2697314.319132802</v>
+        <v>3010939.494213898</v>
       </c>
       <c r="AF4" t="n">
         <v>4.101079761483796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.02916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2439886.42621919</v>
+        <v>2723579.654766131</v>
       </c>
     </row>
     <row r="5">
@@ -27849,28 +27849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1747.464425644062</v>
+        <v>1967.194063055091</v>
       </c>
       <c r="AB5" t="n">
-        <v>2390.957919855735</v>
+        <v>2691.601703548955</v>
       </c>
       <c r="AC5" t="n">
-        <v>2162.76825171522</v>
+        <v>2434.719014648959</v>
       </c>
       <c r="AD5" t="n">
-        <v>1747464.425644062</v>
+        <v>1967194.063055091</v>
       </c>
       <c r="AE5" t="n">
-        <v>2390957.919855735</v>
+        <v>2691601.703548955</v>
       </c>
       <c r="AF5" t="n">
         <v>4.310762507753791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.7375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2162768.25171522</v>
+        <v>2434719.014648959</v>
       </c>
     </row>
     <row r="6">
@@ -27955,28 +27955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1708.25751014149</v>
+        <v>1927.885662326035</v>
       </c>
       <c r="AB6" t="n">
-        <v>2337.313288378081</v>
+        <v>2637.818215507212</v>
       </c>
       <c r="AC6" t="n">
-        <v>2114.24338857508</v>
+        <v>2386.06854722032</v>
       </c>
       <c r="AD6" t="n">
-        <v>1708257.51014149</v>
+        <v>1927885.662326035</v>
       </c>
       <c r="AE6" t="n">
-        <v>2337313.288378081</v>
+        <v>2637818.215507212</v>
       </c>
       <c r="AF6" t="n">
         <v>4.353809958974784e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.29583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2114243.38857508</v>
+        <v>2386068.54722032</v>
       </c>
     </row>
     <row r="7">
@@ -28061,28 +28061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1715.743468813556</v>
+        <v>1935.371620998101</v>
       </c>
       <c r="AB7" t="n">
-        <v>2347.55590729039</v>
+        <v>2648.060834419521</v>
       </c>
       <c r="AC7" t="n">
-        <v>2123.508466314004</v>
+        <v>2395.333624959244</v>
       </c>
       <c r="AD7" t="n">
-        <v>1715743.468813556</v>
+        <v>1935371.620998101</v>
       </c>
       <c r="AE7" t="n">
-        <v>2347555.90729039</v>
+        <v>2648060.834419521</v>
       </c>
       <c r="AF7" t="n">
         <v>4.353809958974784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2123508.466314004</v>
+        <v>2395333.624959244</v>
       </c>
     </row>
   </sheetData>
